--- a/biology/Histoire de la zoologie et de la botanique/August_Johann_Georg_Karl_Batsch/August_Johann_Georg_Karl_Batsch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/August_Johann_Georg_Karl_Batsch/August_Johann_Georg_Karl_Batsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">August Johann Georg Karl Batsch est un naturaliste allemand, né le 28 octobre 1761 à Iéna et mort le 29 septembre 1802 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se passionne dès son jeune âge pour l’histoire naturelle et plus particulièrement pour la botanique.
 Il fait des études à l’université d'Iéna et obtient son doctorat en 1781. En 1786, il obtient un doctorat en médecine et commence la même année à enseigner l’histoire naturelle. L’année suivante, il enseigne la médecine puis, en 1792, la philosophie.
@@ -545,9 +559,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(la) Elenchus Fungorum. Accedunt icones lvii fungorum nonnullorum agri Jenensis, secundum naturam ab autore depictae; aeri incisae et vivis coloribus fucatae a J. S. Capieux, Halle-sur-Saale, Johann Jakob Gebauer, 1783 (lire en ligne) 2 vol. 1783 183 p. 12 pl. ; (1786-1789) 482 p. 29 pl. Champignons des environs d'Iéna, écrit en latin et en allemand, ne s'occupe, comme l'ouvrage de Battarra, que de science pure (rien sur la comestibilité)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(la) Elenchus Fungorum. Accedunt icones lvii fungorum nonnullorum agri Jenensis, secundum naturam ab autore depictae; aeri incisae et vivis coloribus fucatae a J. S. Capieux, Halle-sur-Saale, Johann Jakob Gebauer, 1783 (lire en ligne) 2 vol. 1783 183 p. 12 pl. ; (1786-1789) 482 p. 29 pl. Champignons des environs d'Iéna, écrit en latin et en allemand, ne s'occupe, comme l'ouvrage de Battarra, que de science pure (rien sur la comestibilité).
 (la) Elenchi fungorum continuatio prima, Halle-sur-Saale, Johann Jakob Gebauer, 1786 (lire en ligne)
 (la) Elenchi fungorum continuatio secunda, Halle-sur-Saale, Johann Jakob Gebauer, 1789 (lire en ligne)
 Versuch einer Anleitung zur Kenntniss und Geschichte der Pflanzen (1787-1788)
